--- a/biology/Zoologie/Ada_du_Sao_Francisco/Ada_du_Sao_Francisco.xlsx
+++ b/biology/Zoologie/Ada_du_Sao_Francisco/Ada_du_Sao_Francisco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Knipolegus franciscanus
 L'Ada du Sao Francisco (Knipolegus franciscanus), aussi appelé Ada de la caatinga, est une espèce d'oiseaux de la famille des Tyrannidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique du centre-est du Brésil (État de Minas Gerais et rives du rio São Francisco dans l'État de Bahia).
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les zones tropicales ou subtropicales de forêts sèches.
 Il est menacé par la perte de son habitat.
